--- a/grade.xlsx
+++ b/grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B531D3C-3480-D742-A909-7D5CF3ADF1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15286346-C9C3-5B4F-8F76-006A2FC29D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>uid</t>
-  </si>
-  <si>
     <t>icp2</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>icp6</t>
+  </si>
+  <si>
+    <t>uid (last 4 digits)</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,28 +423,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15286346-C9C3-5B4F-8F76-006A2FC29D34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECF34A-B0D8-0E4D-9E63-E57D20BE2700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,6 +531,9 @@
       <c r="E6">
         <v>100</v>
       </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ECF34A-B0D8-0E4D-9E63-E57D20BE2700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0037B2C0-6620-4F43-9DF6-BC38E2D635F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,6 +480,9 @@
       <c r="E3">
         <v>100</v>
       </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0037B2C0-6620-4F43-9DF6-BC38E2D635F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55851FB7-6A4C-F04C-81CA-C945919EAD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="19060" yWindow="8680" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,7 +411,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,6 +588,9 @@
       <c r="E9">
         <v>100</v>
       </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10218"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55851FB7-6A4C-F04C-81CA-C945919EAD51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A9B9A-AF32-EB4C-A151-0BF1E503C2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19060" yWindow="8680" windowWidth="25440" windowHeight="15000" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>icp2</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>uid (last 4 digits)</t>
+  </si>
+  <si>
+    <t>icp7</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,7 +424,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -446,8 +449,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -464,7 +470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="F3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -500,8 +509,11 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -518,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -537,8 +549,11 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -555,7 +570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -572,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -591,8 +606,11 @@
       <c r="G9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -614,8 +632,11 @@
       <c r="G10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>
@@ -632,6 +653,12 @@
         <v>100</v>
       </c>
       <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10218"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948A9B9A-AF32-EB4C-A151-0BF1E503C2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAD8D20-F0AB-5646-8DB3-84183929E3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,6 +509,9 @@
       <c r="E4">
         <v>100</v>
       </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
       <c r="H4">
         <v>100</v>
       </c>
@@ -568,6 +571,9 @@
       </c>
       <c r="E7">
         <v>0</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAD8D20-F0AB-5646-8DB3-84183929E3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EE786-54D7-8847-B3E9-87CFCD1AE16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="23940" yWindow="2900" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3EE786-54D7-8847-B3E9-87CFCD1AE16E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159DBC3-FD7E-794F-9440-C400B1BC2797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23940" yWindow="2900" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A159DBC3-FD7E-794F-9440-C400B1BC2797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D457EE8-A53E-9C42-9957-C4012691FFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,6 +592,9 @@
       <c r="E8">
         <v>0</v>
       </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D457EE8-A53E-9C42-9957-C4012691FFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA2C589-0941-6B42-96D6-5178F95761D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,6 +469,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA2C589-0941-6B42-96D6-5178F95761D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E80A13-8BB1-E442-99E3-0671837DA378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>100</v>
       </c>
     </row>
@@ -492,7 +492,7 @@
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>100</v>
       </c>
     </row>
@@ -595,7 +595,7 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E80A13-8BB1-E442-99E3-0671837DA378}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBB0F5-87D1-E144-B405-F92B3219759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,6 +555,9 @@
       <c r="F6">
         <v>100</v>
       </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
       <c r="H6">
         <v>100</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10302"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBB0F5-87D1-E144-B405-F92B3219759A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBF3F6A-6EF8-E342-AEA0-705F0C1AAC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,6 +472,9 @@
       <c r="G2">
         <v>100</v>
       </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -495,6 +498,9 @@
       <c r="G3">
         <v>100</v>
       </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -518,6 +524,9 @@
       <c r="H4">
         <v>100</v>
       </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -561,6 +570,9 @@
       <c r="H6">
         <v>100</v>
       </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -601,6 +613,9 @@
       <c r="G8">
         <v>100</v>
       </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -624,6 +639,9 @@
       <c r="H9">
         <v>100</v>
       </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -650,6 +668,9 @@
       <c r="H10">
         <v>100</v>
       </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -674,6 +695,9 @@
         <v>100</v>
       </c>
       <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBF3F6A-6EF8-E342-AEA0-705F0C1AAC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C73C68-0FF6-7542-BFFD-4200D7B7C10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,13 +461,13 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2">
         <v>100</v>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C73C68-0FF6-7542-BFFD-4200D7B7C10B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D8520-7F91-1542-955F-49B5CE7930D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="9740" yWindow="6200" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>icp2</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>icp7</t>
+  </si>
+  <si>
+    <t>icp8</t>
+  </si>
+  <si>
+    <t>icp9</t>
+  </si>
+  <si>
+    <t>HW2</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +433,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -452,8 +461,17 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -476,7 +494,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -502,7 +520,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -528,7 +546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -545,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -574,7 +592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -594,7 +612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -617,7 +635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -643,7 +661,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -671,8 +689,14 @@
       <c r="I10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D8520-7F91-1542-955F-49B5CE7930D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF875DE-1AE8-F741-A42D-A73150E8BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="6200" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="12760" yWindow="4740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,16 @@
       <c r="G3">
         <v>100</v>
       </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
       <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
         <v>100</v>
       </c>
     </row>
@@ -545,6 +554,12 @@
       <c r="I4">
         <v>100</v>
       </c>
+      <c r="J4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -591,6 +606,12 @@
       <c r="I6">
         <v>100</v>
       </c>
+      <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -660,6 +681,9 @@
       <c r="I9">
         <v>100</v>
       </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -692,6 +716,9 @@
       <c r="J10">
         <v>100</v>
       </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
       <c r="L10">
         <v>100</v>
       </c>
@@ -722,6 +749,12 @@
         <v>100</v>
       </c>
       <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF875DE-1AE8-F741-A42D-A73150E8BBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76245B5B-80E4-8E4A-8022-EAA3B0DC46EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="17640" yWindow="5700" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,6 +655,12 @@
       <c r="I8">
         <v>100</v>
       </c>
+      <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -681,6 +687,9 @@
       <c r="I9">
         <v>100</v>
       </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
       <c r="L9">
         <v>100</v>
       </c>
@@ -752,6 +761,9 @@
         <v>100</v>
       </c>
       <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76245B5B-80E4-8E4A-8022-EAA3B0DC46EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F323B-0E93-EB41-A143-AF41CFECE31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="5700" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,6 +557,9 @@
       <c r="J4">
         <v>100</v>
       </c>
+      <c r="K4">
+        <v>100</v>
+      </c>
       <c r="L4">
         <v>100</v>
       </c>
@@ -607,6 +610,9 @@
         <v>100</v>
       </c>
       <c r="J6">
+        <v>100</v>
+      </c>
+      <c r="K6">
         <v>100</v>
       </c>
       <c r="L6">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F323B-0E93-EB41-A143-AF41CFECE31A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70954A5-E311-E341-9B9A-75AD741E5744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +693,9 @@
       <c r="I9">
         <v>100</v>
       </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
       <c r="K9">
         <v>100</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70954A5-E311-E341-9B9A-75AD741E5744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13017D-F81F-714D-B48B-4EFAC559C487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>icp2</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>HW2</t>
+  </si>
+  <si>
+    <t>icp10</t>
   </si>
 </sst>
 </file>
@@ -420,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +436,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -470,8 +473,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -494,7 +500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -529,7 +535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -564,7 +570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -581,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -619,7 +625,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -639,7 +645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -668,7 +674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -703,7 +709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -740,8 +746,11 @@
       <c r="L10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13017D-F81F-714D-B48B-4EFAC559C487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7609EA83-9AA5-7549-997D-4C6C6F8DCED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,10 +528,16 @@
       <c r="I3">
         <v>100</v>
       </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
       <c r="K3">
         <v>100</v>
       </c>
       <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7609EA83-9AA5-7549-997D-4C6C6F8DCED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A3BDD-A52A-2345-BA23-B522E49FE9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,6 +714,9 @@
       <c r="L9">
         <v>100</v>
       </c>
+      <c r="M9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -791,6 +794,9 @@
         <v>100</v>
       </c>
       <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1A3BDD-A52A-2345-BA23-B522E49FE9ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33DD79-CFC6-1343-903F-41188B805CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="3780" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="15280" yWindow="2740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -630,6 +630,9 @@
       <c r="L6">
         <v>100</v>
       </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -650,6 +653,18 @@
       <c r="G7">
         <v>100</v>
       </c>
+      <c r="I7">
+        <v>90</v>
+      </c>
+      <c r="J7">
+        <v>90</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -674,6 +689,9 @@
         <v>100</v>
       </c>
       <c r="J8">
+        <v>100</v>
+      </c>
+      <c r="K8">
         <v>100</v>
       </c>
       <c r="L8">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33DD79-CFC6-1343-903F-41188B805CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C30A98-2B5E-A042-B24A-06858FA8060A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="2740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>icp2</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>icp10</t>
+  </si>
+  <si>
+    <t>HW3</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,7 +439,7 @@
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -476,8 +479,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -500,7 +506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -541,7 +547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -576,7 +582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -593,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -634,7 +640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -666,7 +672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -698,7 +704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -736,7 +742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -776,8 +782,11 @@
       <c r="M10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C30A98-2B5E-A042-B24A-06858FA8060A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C29EC-5D10-8040-92F2-7B02E89B318A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="2740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>icp2</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>HW3</t>
+  </si>
+  <si>
+    <t>icp12</t>
+  </si>
+  <si>
+    <t>icp13 (course evaluation)</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,9 +443,10 @@
     <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -482,8 +489,14 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -506,7 +519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -547,7 +560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -582,7 +595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -599,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -640,7 +653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -672,7 +685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -704,7 +717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -742,7 +755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -785,8 +798,11 @@
       <c r="N10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>
@@ -824,6 +840,9 @@
         <v>100</v>
       </c>
       <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="O11">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C29EC-5D10-8040-92F2-7B02E89B318A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299A2AB5-5F02-A348-B87C-9D722BB4E437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15280" yWindow="2740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,6 +652,9 @@
       <c r="M6">
         <v>100</v>
       </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -754,6 +757,9 @@
       <c r="M9">
         <v>100</v>
       </c>
+      <c r="O9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -840,6 +846,9 @@
         <v>100</v>
       </c>
       <c r="M11">
+        <v>100</v>
+      </c>
+      <c r="N11">
         <v>100</v>
       </c>
       <c r="O11">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299A2AB5-5F02-A348-B87C-9D722BB4E437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC2963-AB97-D74B-B661-0823C88AF243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="2740" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="19260" yWindow="9720" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +515,22 @@
       <c r="G2">
         <v>100</v>
       </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
       <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+      <c r="P2">
         <v>100</v>
       </c>
     </row>
@@ -559,6 +574,12 @@
       <c r="M3">
         <v>100</v>
       </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -594,6 +615,12 @@
       <c r="L4">
         <v>100</v>
       </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -702,11 +729,14 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>100</v>
       </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
       <c r="I8">
         <v>100</v>
       </c>
@@ -717,6 +747,15 @@
         <v>100</v>
       </c>
       <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>100</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="O8">
         <v>100</v>
       </c>
     </row>
@@ -758,6 +797,9 @@
         <v>100</v>
       </c>
       <c r="O9">
+        <v>100</v>
+      </c>
+      <c r="P9">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BC2963-AB97-D74B-B661-0823C88AF243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28315058-BCDD-C04B-9778-97DD44FAEA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19260" yWindow="9720" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,6 +758,9 @@
       <c r="O8">
         <v>100</v>
       </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -847,6 +850,9 @@
         <v>100</v>
       </c>
       <c r="O10">
+        <v>100</v>
+      </c>
+      <c r="P10">
         <v>100</v>
       </c>
     </row>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28315058-BCDD-C04B-9778-97DD44FAEA8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD5BBF7-77D8-9740-AE9D-8EBAAC86D95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="9720" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="10020" yWindow="880" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,6 +574,9 @@
       <c r="M3">
         <v>100</v>
       </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
       <c r="O3">
         <v>100</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD5BBF7-77D8-9740-AE9D-8EBAAC86D95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1B287-6662-0C4F-87C0-AC01A4788874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10020" yWindow="880" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,6 +802,9 @@
       <c r="M9">
         <v>100</v>
       </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
       <c r="O9">
         <v>100</v>
       </c>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC1B287-6662-0C4F-87C0-AC01A4788874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6255C-9EFC-684B-881E-4770482B5C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="880" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
+    <workbookView xWindow="17800" yWindow="2280" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,6 +717,18 @@
       <c r="L7">
         <v>100</v>
       </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10506"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twhuang/PhD/Course/ECE5960/spring20/ece5960/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6255C-9EFC-684B-881E-4770482B5C43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B13D77-3D88-AB4A-9F9E-3DC7C425AACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17800" yWindow="2280" windowWidth="25600" windowHeight="15540" xr2:uid="{20F95EEC-55CF-F545-8D24-5394123A7EB4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>icp2</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>icp13 (course evaluation)</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80C73FD-BEC9-6746-AFF1-E4FFCAE6FC85}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +455,7 @@
     <col min="16" max="16" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -495,8 +504,11 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8594</v>
       </c>
@@ -530,11 +542,23 @@
       <c r="L2">
         <v>100</v>
       </c>
+      <c r="M2">
+        <v>90</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>90</v>
+      </c>
       <c r="P2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1341</v>
       </c>
@@ -583,8 +607,11 @@
       <c r="P3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4827</v>
       </c>
@@ -624,8 +651,11 @@
       <c r="P4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8244</v>
       </c>
@@ -642,7 +672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6833</v>
       </c>
@@ -682,11 +712,20 @@
       <c r="M6">
         <v>100</v>
       </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
       <c r="O6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9762</v>
       </c>
@@ -729,8 +768,11 @@
       <c r="P7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>9556</v>
       </c>
@@ -776,8 +818,11 @@
       <c r="P8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4130</v>
       </c>
@@ -823,8 +868,11 @@
       <c r="P9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7402</v>
       </c>
@@ -873,8 +921,11 @@
       <c r="P10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6736</v>
       </c>
@@ -919,6 +970,12 @@
       </c>
       <c r="O11">
         <v>100</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
